--- a/templates/summary_template_simplified.xlsx
+++ b/templates/summary_template_simplified.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grachev\Yandex.Disk\Работа\ОнлайнБрокер\soft\onlineservice\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE62978-60BA-4154-BEC2-B758DABA082D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1815EAEC-132D-469D-A869-DAC7161A38D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -107,7 +107,7 @@
     <t>Текст письма:</t>
   </si>
   <si>
-    <t>test comment</t>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -481,6 +481,30 @@
     <xf numFmtId="3" fontId="12" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -504,30 +528,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1695,7 +1695,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1716,57 +1716,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="44" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="3"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="47"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="55"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="6"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="49"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="57"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -1792,15 +1792,15 @@
       <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -1830,13 +1830,13 @@
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="54" t="s">
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="48" t="s">
         <v>8</v>
       </c>
       <c r="J7" s="15"/>
@@ -1868,7 +1868,7 @@
       <c r="H8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="55"/>
+      <c r="I8" s="49"/>
       <c r="J8" s="18"/>
       <c r="K8" s="19" t="s">
         <v>16</v>
@@ -1947,16 +1947,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="M1:N2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="I7:I8"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="M1:N2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>

--- a/templates/summary_template_simplified.xlsx
+++ b/templates/summary_template_simplified.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grachev\Yandex.Disk\Работа\ОнлайнБрокер\soft\onlineservice\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1815EAEC-132D-469D-A869-DAC7161A38D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF197B19-592C-4A45-AB5E-0EAD36B4EC45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,15 @@
     <sheet name="summary_template_sheet" sheetId="1" r:id="rId1"/>
     <sheet name="tech_info" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">summary_template_sheet!$A$1:$K$11</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Свод котировок и условий по заявке №</t>
   </si>
@@ -108,6 +111,15 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Франшиза</t>
+  </si>
+  <si>
+    <t>Автозапуск</t>
+  </si>
+  <si>
+    <t>Рассрочка</t>
   </si>
 </sst>
 </file>
@@ -386,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -481,6 +493,30 @@
     <xf numFmtId="3" fontId="12" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -505,30 +541,8 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1694,8 +1708,8 @@
   </sheetPr>
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1716,57 +1730,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="52" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="3"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="55"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="47"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="6"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="57"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="49"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="44" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -1792,15 +1806,15 @@
       <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -1830,13 +1844,13 @@
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="48" t="s">
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="56" t="s">
         <v>8</v>
       </c>
       <c r="J7" s="15"/>
@@ -1868,7 +1882,7 @@
       <c r="H8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="49"/>
+      <c r="I8" s="57"/>
       <c r="J8" s="18"/>
       <c r="K8" s="19" t="s">
         <v>16</v>
@@ -1947,19 +1961,19 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I7:I8"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="M1:N2"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:G2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I7:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup scale="72" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Arial Cyr,Regular"&amp;10&amp;K000000summary_template.xlsx&amp;C&amp;"Helvetica Neue,Regular"&amp;11&amp;K000000&amp;P</oddHeader>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;11&amp;K000000&amp;P</oddFooter>
@@ -1971,7 +1985,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2088,31 +2104,37 @@
       <c r="D13" s="39"/>
       <c r="E13" s="39"/>
     </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="40" t="s">
+    <row r="14" spans="1:5" ht="138" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="38"/>
+      <c r="B14" s="59"/>
       <c r="C14" s="39"/>
       <c r="D14" s="39"/>
       <c r="E14" s="39"/>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="38"/>
+      <c r="A15" s="38" t="s">
+        <v>29</v>
+      </c>
       <c r="B15" s="38"/>
       <c r="C15" s="39"/>
       <c r="D15" s="39"/>
       <c r="E15" s="39"/>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="38"/>
+      <c r="A16" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="B16" s="38"/>
       <c r="C16" s="39"/>
       <c r="D16" s="39"/>
       <c r="E16" s="39"/>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="38"/>
+      <c r="A17" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="B17" s="38"/>
       <c r="C17" s="39"/>
       <c r="D17" s="39"/>

--- a/templates/summary_template_simplified.xlsx
+++ b/templates/summary_template_simplified.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grachev\Yandex.Disk\Работа\ОнлайнБрокер\soft\onlineservice\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF197B19-592C-4A45-AB5E-0EAD36B4EC45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A0820A-92F7-4BB4-9055-A04B85EFD3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary_template_sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="tech_info" sheetId="2" r:id="rId2"/>
+    <sheet name="tech_info" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">summary_template_sheet!$A$1:$K$11</definedName>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Свод котировок и условий по заявке №</t>
   </si>
@@ -86,15 +86,9 @@
     <t>Технические данные</t>
   </si>
   <si>
-    <t>Запрос по своду делался по следующим параметрам:</t>
-  </si>
-  <si>
     <t>Заявка:</t>
   </si>
   <si>
-    <t>Клиент:</t>
-  </si>
-  <si>
     <t>ИНН:</t>
   </si>
   <si>
@@ -107,26 +101,56 @@
     <t>Информация о предмете лизинга:</t>
   </si>
   <si>
-    <t>Текст письма:</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Франшиза</t>
-  </si>
-  <si>
-    <t>Автозапуск</t>
-  </si>
-  <si>
-    <t>Рассрочка</t>
+    <t>Запрос делался по следующим параметрам:</t>
+  </si>
+  <si>
+    <t>Данные о клиенте</t>
+  </si>
+  <si>
+    <t>Лизингополучатель:</t>
+  </si>
+  <si>
+    <t>Данные об условиях запроса</t>
+  </si>
+  <si>
+    <t>Банк-кредитор:</t>
+  </si>
+  <si>
+    <t>Франшиза:</t>
+  </si>
+  <si>
+    <t>Рассрочка:</t>
+  </si>
+  <si>
+    <t>Цели использования:</t>
+  </si>
+  <si>
+    <t>Заправшиваемые риски:</t>
+  </si>
+  <si>
+    <t>Дополнительные параметры запроса</t>
+  </si>
+  <si>
+    <t>Автозапуск:</t>
+  </si>
+  <si>
+    <t>Комплектность ключей:</t>
+  </si>
+  <si>
+    <t>ПТС / ПСМ:</t>
+  </si>
+  <si>
+    <t>Телематический комплекс:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -136,87 +160,155 @@
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="13"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color indexed="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="13"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="20"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial Cyr"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,6 +373,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="19"/>
         <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -395,12 +493,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -414,8 +512,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -464,9 +560,6 @@
     <xf numFmtId="3" fontId="10" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="11" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -479,20 +572,41 @@
     <xf numFmtId="49" fontId="13" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="12" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -505,18 +619,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -541,11 +643,33 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="20" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="20" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{2F23B431-0EFE-4973-91FA-34D5334A0341}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -1709,255 +1833,255 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E10" sqref="E10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="2.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="13.5703125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="13" style="1" customWidth="1"/>
-    <col min="10" max="10" width="2.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="29.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="2.85546875" style="1" customWidth="1"/>
-    <col min="13" max="14" width="13.5703125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="34.42578125" style="59" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="59" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="59" customWidth="1"/>
+    <col min="4" max="4" width="2.85546875" style="59" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="59" customWidth="1"/>
+    <col min="6" max="7" width="13.5703125" style="59" customWidth="1"/>
+    <col min="8" max="9" width="13" style="59" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" style="59" customWidth="1"/>
+    <col min="11" max="11" width="29.5703125" style="59" customWidth="1"/>
+    <col min="12" max="12" width="2.85546875" style="59" customWidth="1"/>
+    <col min="13" max="14" width="13.5703125" style="59" customWidth="1"/>
+    <col min="15" max="15" width="9" style="59" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="59"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="44" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="47"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="58"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="49"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="61"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52" t="s">
+      <c r="B3" s="48"/>
+      <c r="C3" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="8"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="62"/>
     </row>
     <row r="4" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="8"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="62"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="8"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="62"/>
     </row>
     <row r="6" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="13"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="10"/>
     </row>
     <row r="7" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="56" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="56" t="s">
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="13"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="17" t="s">
+      <c r="D8" s="15"/>
+      <c r="E8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="57"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="19" t="s">
+      <c r="I8" s="54"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="18"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="20"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="17"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="23"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="20"/>
     </row>
     <row r="10" spans="1:14" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="23">
         <v>2000000</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28">
+      <c r="D10" s="64"/>
+      <c r="E10" s="24">
         <f>F10/C10</f>
         <v>0.05</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="25">
         <v>100000</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="26">
         <v>0</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="26">
         <v>1</v>
       </c>
-      <c r="I10" s="41">
+      <c r="I10" s="30">
         <f>SUM(F10:F10)</f>
         <v>100000</v>
       </c>
-      <c r="J10" s="27"/>
-      <c r="K10" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="27"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="23"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="64"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="20"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="33"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="36"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1982,310 +2106,212 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A66B042C-D01C-4255-9004-5A6ED723B3E9}">
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="47.5703125" style="1" customWidth="1"/>
-    <col min="3" max="6" width="9" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="50.85546875" style="56" customWidth="1"/>
+    <col min="2" max="2" width="76" style="56" customWidth="1"/>
+    <col min="3" max="3" width="9" style="56" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="55"/>
+      <c r="B1" s="55"/>
+    </row>
+    <row r="2" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="40" t="s">
+      <c r="B2" s="32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="55"/>
+      <c r="B3" s="33"/>
+    </row>
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="35"/>
+    </row>
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="40" t="s">
+      <c r="B5" s="35"/>
+    </row>
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="35"/>
+    </row>
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="40" t="s">
+      <c r="B7" s="35"/>
+    </row>
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="40" t="s">
+      <c r="B8" s="35"/>
+    </row>
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+    </row>
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="35"/>
+    </row>
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="40" t="s">
+      <c r="B11" s="35"/>
+    </row>
+    <row r="12" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-    </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-    </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-    </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-    </row>
-    <row r="14" spans="1:5" ht="138" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-    </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="38" t="s">
+      <c r="B12" s="39"/>
+    </row>
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="38" t="s">
+      <c r="B13" s="35"/>
+    </row>
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-    </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-    </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-    </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-    </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-    </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-    </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="38"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-    </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-    </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="38"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-    </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="38"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-    </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="38"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-    </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="38"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-    </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="38"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-    </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="38"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-    </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="38"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-    </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="38"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-    </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="38"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
+      <c r="B14" s="35"/>
+    </row>
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="35"/>
+    </row>
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="35"/>
+    </row>
+    <row r="17" spans="1:2" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="39"/>
+    </row>
+    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+    </row>
+    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+    </row>
+    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="35"/>
+    </row>
+    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="35"/>
+    </row>
+    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="35"/>
+    </row>
+    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="35"/>
+    </row>
+    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="35"/>
+    </row>
+    <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="55"/>
+      <c r="B25" s="33"/>
+    </row>
+    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+    </row>
+    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+    </row>
+    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+    </row>
+    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+    </row>
+    <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+    </row>
+    <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+    </row>
+    <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+    </row>
+    <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
+    </row>
+    <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+    </row>
+    <row r="35" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+    </row>
+    <row r="36" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
+    </row>
+    <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
+    </row>
+    <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/templates/summary_template_simplified.xlsx
+++ b/templates/summary_template_simplified.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grachev\Yandex.Disk\Работа\ОнлайнБрокер\soft\onlineservice\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A0820A-92F7-4BB4-9055-A04B85EFD3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B09C2D-7911-4CB1-98E2-CB87C66DBFED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary_template_sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="tech_info" sheetId="3" r:id="rId2"/>
+    <sheet name="tech_info" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">summary_template_sheet!$A$1:$K$11</definedName>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
   <si>
     <t>Свод котировок и условий по заявке №</t>
   </si>
@@ -131,9 +131,6 @@
     <t>Заправшиваемые риски:</t>
   </si>
   <si>
-    <t>Дополнительные параметры запроса</t>
-  </si>
-  <si>
     <t>Автозапуск:</t>
   </si>
   <si>
@@ -144,6 +141,24 @@
   </si>
   <si>
     <t>Телематический комплекс:</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Доп. параметры для КАСКО\СТ</t>
+  </si>
+  <si>
+    <t>Доп. параметры для имущества</t>
+  </si>
+  <si>
+    <t>Территория страхования:</t>
+  </si>
+  <si>
+    <t>Наличие перевозки:</t>
+  </si>
+  <si>
+    <t>Наличие СМР</t>
   </si>
 </sst>
 </file>
@@ -497,7 +512,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -607,57 +622,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="20" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -666,6 +633,60 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1832,86 +1853,86 @@
   </sheetPr>
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E10" sqref="E10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" style="59" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="59" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" style="59" customWidth="1"/>
-    <col min="4" max="4" width="2.85546875" style="59" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="59" customWidth="1"/>
-    <col min="6" max="7" width="13.5703125" style="59" customWidth="1"/>
-    <col min="8" max="9" width="13" style="59" customWidth="1"/>
-    <col min="10" max="10" width="2.85546875" style="59" customWidth="1"/>
-    <col min="11" max="11" width="29.5703125" style="59" customWidth="1"/>
-    <col min="12" max="12" width="2.85546875" style="59" customWidth="1"/>
-    <col min="13" max="14" width="13.5703125" style="59" customWidth="1"/>
-    <col min="15" max="15" width="9" style="59" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="59"/>
+    <col min="1" max="1" width="34.42578125" style="45" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="45" customWidth="1"/>
+    <col min="4" max="4" width="2.85546875" style="45" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="45" customWidth="1"/>
+    <col min="6" max="7" width="13.5703125" style="45" customWidth="1"/>
+    <col min="8" max="9" width="13" style="45" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" style="45" customWidth="1"/>
+    <col min="11" max="11" width="29.5703125" style="45" customWidth="1"/>
+    <col min="12" max="12" width="2.85546875" style="45" customWidth="1"/>
+    <col min="13" max="14" width="13.5703125" style="45" customWidth="1"/>
+    <col min="15" max="15" width="9" style="45" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="45" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="58"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="63"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="5"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="61"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="65"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="62"/>
+      <c r="N3" s="46"/>
     </row>
     <row r="4" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
@@ -1927,25 +1948,25 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="62"/>
+      <c r="N4" s="46"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-      <c r="N5" s="62"/>
+      <c r="N5" s="46"/>
     </row>
     <row r="6" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
@@ -1968,13 +1989,13 @@
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="53" t="s">
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="56" t="s">
         <v>8</v>
       </c>
       <c r="J7" s="12"/>
@@ -2006,7 +2027,7 @@
       <c r="H8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="54"/>
+      <c r="I8" s="57"/>
       <c r="J8" s="15"/>
       <c r="K8" s="16" t="s">
         <v>16</v>
@@ -2026,8 +2047,8 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="64"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="48"/>
       <c r="M9" s="3"/>
       <c r="N9" s="20"/>
     </row>
@@ -2041,7 +2062,7 @@
       <c r="C10" s="23">
         <v>2000000</v>
       </c>
-      <c r="D10" s="64"/>
+      <c r="D10" s="48"/>
       <c r="E10" s="24">
         <f>F10/C10</f>
         <v>0.05</v>
@@ -2059,11 +2080,11 @@
         <f>SUM(F10:F10)</f>
         <v>100000</v>
       </c>
-      <c r="J10" s="64"/>
+      <c r="J10" s="48"/>
       <c r="K10" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="64"/>
+      <c r="L10" s="48"/>
       <c r="M10" s="3"/>
       <c r="N10" s="20"/>
     </row>
@@ -2081,20 +2102,20 @@
       <c r="K11" s="29"/>
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
-      <c r="N11" s="65"/>
+      <c r="N11" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="M1:N2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="I7:I8"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="M1:N2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="72" orientation="landscape" r:id="rId1"/>
@@ -2106,24 +2127,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A66B042C-D01C-4255-9004-5A6ED723B3E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDCC026-0679-4973-AC18-B85E66CD85DA}">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.85546875" style="56" customWidth="1"/>
-    <col min="2" max="2" width="76" style="56" customWidth="1"/>
-    <col min="3" max="3" width="9" style="56" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="56"/>
+    <col min="1" max="1" width="50.85546875" style="44" customWidth="1"/>
+    <col min="2" max="2" width="76" style="44" customWidth="1"/>
+    <col min="3" max="3" width="9" style="44" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="55"/>
-      <c r="B1" s="55"/>
+      <c r="A1" s="43"/>
+      <c r="B1" s="43"/>
     </row>
     <row r="2" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
@@ -2134,7 +2155,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="55"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="33"/>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2147,32 +2168,40 @@
       <c r="A5" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="35"/>
+      <c r="B5" s="35" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="35" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="35"/>
+      <c r="B7" s="35" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="35"/>
+      <c r="B8" s="35" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33"/>
       <c r="B9" s="33"/>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="66" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="35"/>
@@ -2181,43 +2210,57 @@
       <c r="A11" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="35" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="12" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="39"/>
+      <c r="B12" s="39" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="35"/>
+      <c r="B13" s="35" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="35"/>
+      <c r="B14" s="35" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="35"/>
+      <c r="B15" s="35" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="35"/>
+      <c r="B16" s="35" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="17" spans="1:2" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="39"/>
+      <c r="B17" s="39" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="35"/>
@@ -2228,54 +2271,76 @@
       <c r="B19" s="33"/>
     </row>
     <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="34" t="s">
-        <v>35</v>
+      <c r="A20" s="67" t="s">
+        <v>40</v>
       </c>
       <c r="B20" s="35"/>
     </row>
     <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="35"/>
+        <v>35</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="35"/>
+        <v>36</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="35"/>
+        <v>37</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="35"/>
     </row>
     <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="55"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="33"/>
     </row>
     <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="35"/>
+      <c r="A26" s="67" t="s">
+        <v>41</v>
+      </c>
       <c r="B26" s="35"/>
     </row>
     <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
+      <c r="A27" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
+      <c r="A28" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
+      <c r="A29" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="35"/>

--- a/templates/summary_template_simplified.xlsx
+++ b/templates/summary_template_simplified.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grachev\Yandex.Disk\Работа\ОнлайнБрокер\soft\onlineservice\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B09C2D-7911-4CB1-98E2-CB87C66DBFED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C0D9C2-DC66-418D-9DC8-50A291A1DF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary_template_sheet" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>Свод котировок и условий по заявке №</t>
   </si>
@@ -159,6 +159,12 @@
   </si>
   <si>
     <t>Наличие СМР</t>
+  </si>
+  <si>
+    <t>Выбрана СК:</t>
+  </si>
+  <si>
+    <t>Выбрано предложение:</t>
   </si>
 </sst>
 </file>
@@ -323,7 +329,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,6 +399,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,7 +524,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -523,9 +535,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -633,6 +642,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -681,12 +696,16 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1853,91 +1872,95 @@
   </sheetPr>
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:H10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" style="45" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="45" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" style="45" customWidth="1"/>
-    <col min="4" max="4" width="2.85546875" style="45" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="45" customWidth="1"/>
-    <col min="6" max="7" width="13.5703125" style="45" customWidth="1"/>
-    <col min="8" max="9" width="13" style="45" customWidth="1"/>
-    <col min="10" max="10" width="2.85546875" style="45" customWidth="1"/>
-    <col min="11" max="11" width="29.5703125" style="45" customWidth="1"/>
-    <col min="12" max="12" width="2.85546875" style="45" customWidth="1"/>
-    <col min="13" max="14" width="13.5703125" style="45" customWidth="1"/>
-    <col min="15" max="15" width="9" style="45" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="45"/>
+    <col min="1" max="1" width="34.42578125" style="44" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="44" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="44" customWidth="1"/>
+    <col min="4" max="4" width="2.85546875" style="44" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="44" customWidth="1"/>
+    <col min="6" max="7" width="13.5703125" style="44" customWidth="1"/>
+    <col min="8" max="9" width="13" style="44" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" style="44" customWidth="1"/>
+    <col min="11" max="11" width="29.5703125" style="44" customWidth="1"/>
+    <col min="12" max="12" width="2.85546875" style="44" customWidth="1"/>
+    <col min="13" max="14" width="13.5703125" style="44" customWidth="1"/>
+    <col min="15" max="15" width="9" style="44" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="60" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="K1" s="67" t="s">
+        <v>45</v>
+      </c>
       <c r="L1" s="2"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="64"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="5"/>
+      <c r="K2" s="68"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="66"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52" t="s">
+      <c r="B3" s="52"/>
+      <c r="C3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="K3" s="69" t="s">
+        <v>46</v>
+      </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="46"/>
+      <c r="N3" s="45"/>
     </row>
     <row r="4" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -1945,36 +1968,36 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="K4" s="69"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="46"/>
+      <c r="N4" s="45"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="K5" s="70"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-      <c r="N5" s="46"/>
+      <c r="N5" s="45"/>
     </row>
     <row r="6" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -1982,130 +2005,131 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="10"/>
+      <c r="N6" s="9"/>
     </row>
     <row r="7" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="56" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="56" t="s">
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="10"/>
+      <c r="N7" s="9"/>
     </row>
     <row r="8" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="14" t="s">
+      <c r="D8" s="14"/>
+      <c r="E8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="57"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="16" t="s">
+      <c r="I8" s="58"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="15"/>
+      <c r="L8" s="14"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="17"/>
+      <c r="N8" s="16"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="48"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="47"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="20"/>
+      <c r="N9" s="19"/>
     </row>
     <row r="10" spans="1:14" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="22">
         <v>2000000</v>
       </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="24">
+      <c r="D10" s="47"/>
+      <c r="E10" s="23">
         <f>F10/C10</f>
         <v>0.05</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="24">
         <v>100000</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="25">
         <v>0</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="25">
         <v>1</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="29">
         <f>SUM(F10:F10)</f>
         <v>100000</v>
       </c>
-      <c r="J10" s="48"/>
-      <c r="K10" s="27" t="s">
+      <c r="J10" s="47"/>
+      <c r="K10" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="48"/>
+      <c r="L10" s="47"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="20"/>
+      <c r="N10" s="19"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="49"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="K3:K4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="M1:N2"/>
@@ -2130,253 +2154,253 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDCC026-0679-4973-AC18-B85E66CD85DA}">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.85546875" style="44" customWidth="1"/>
-    <col min="2" max="2" width="76" style="44" customWidth="1"/>
-    <col min="3" max="3" width="9" style="44" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="44"/>
+    <col min="1" max="1" width="50.85546875" style="43" customWidth="1"/>
+    <col min="2" max="2" width="76" style="43" customWidth="1"/>
+    <col min="3" max="3" width="9" style="43" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43"/>
-      <c r="B1" s="43"/>
+      <c r="A1" s="42"/>
+      <c r="B1" s="42"/>
     </row>
     <row r="2" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="43"/>
-      <c r="B3" s="33"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="32"/>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="34"/>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="34" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="34" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="34" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="34" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="35"/>
+      <c r="B10" s="34"/>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="34" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="38" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="34" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="34" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="34" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="34" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="38" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
     </row>
     <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
     </row>
     <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="35"/>
+      <c r="B20" s="34"/>
     </row>
     <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="34" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="34" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="34" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="34" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="43"/>
-      <c r="B25" s="33"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="32"/>
     </row>
     <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="67" t="s">
+      <c r="A26" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="35"/>
+      <c r="B26" s="34"/>
     </row>
     <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="34" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="34" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="34" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
     </row>
     <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
     </row>
     <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="35"/>
-      <c r="B32" s="35"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
     </row>
     <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="35"/>
-      <c r="B33" s="35"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
     </row>
     <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="35"/>
-      <c r="B34" s="35"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
     </row>
     <row r="35" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="35"/>
-      <c r="B35" s="35"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="34"/>
     </row>
     <row r="36" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="35"/>
-      <c r="B36" s="35"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="34"/>
     </row>
     <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="35"/>
-      <c r="B37" s="35"/>
+      <c r="A37" s="34"/>
+      <c r="B37" s="34"/>
     </row>
     <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="35"/>
-      <c r="B38" s="35"/>
+      <c r="A38" s="34"/>
+      <c r="B38" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/templates/summary_template_simplified.xlsx
+++ b/templates/summary_template_simplified.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grachev\Yandex.Disk\Работа\ОнлайнБрокер\soft\onlineservice\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C0D9C2-DC66-418D-9DC8-50A291A1DF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26348686-D858-49D6-B121-C3DA71377290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary_template_sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="tech_info" sheetId="4" r:id="rId2"/>
+    <sheet name="tech_info" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">summary_template_sheet!$A$1:$K$11</definedName>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
   <si>
     <t>Свод котировок и условий по заявке №</t>
   </si>
@@ -44,9 +44,6 @@
     <t>ООО "Ромашка"</t>
   </si>
   <si>
-    <t>Сводный сравнительный анализ котировок страховых тарифов и условий страхования</t>
-  </si>
-  <si>
     <t>Предложение 1</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t>франшиза</t>
   </si>
   <si>
-    <t>рассрочка</t>
-  </si>
-  <si>
     <t>Комментарии</t>
   </si>
   <si>
@@ -110,27 +104,27 @@
     <t>Данные о клиенте</t>
   </si>
   <si>
+    <t>Данные об условиях запроса</t>
+  </si>
+  <si>
     <t>Лизингополучатель:</t>
   </si>
   <si>
-    <t>Данные об условиях запроса</t>
+    <t>Франшиза:</t>
+  </si>
+  <si>
+    <t>Рассрочка:</t>
+  </si>
+  <si>
+    <t>Заправшиваемые риски:</t>
   </si>
   <si>
     <t>Банк-кредитор:</t>
   </si>
   <si>
-    <t>Франшиза:</t>
-  </si>
-  <si>
-    <t>Рассрочка:</t>
-  </si>
-  <si>
     <t>Цели использования:</t>
   </si>
   <si>
-    <t>Заправшиваемые риски:</t>
-  </si>
-  <si>
     <t>Автозапуск:</t>
   </si>
   <si>
@@ -143,18 +137,18 @@
     <t>Телематический комплекс:</t>
   </si>
   <si>
+    <t>Доп. параметры для КАСКО\СТ</t>
+  </si>
+  <si>
+    <t>Территория страхования:</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
-    <t>Доп. параметры для КАСКО\СТ</t>
-  </si>
-  <si>
     <t>Доп. параметры для имущества</t>
   </si>
   <si>
-    <t>Территория страхования:</t>
-  </si>
-  <si>
     <t>Наличие перевозки:</t>
   </si>
   <si>
@@ -165,17 +159,69 @@
   </si>
   <si>
     <t>Выбрано предложение:</t>
+  </si>
+  <si>
+    <t>Цели использования</t>
+  </si>
+  <si>
+    <t>Сравнительный анализ страховых тарифов</t>
+  </si>
+  <si>
+    <t>Примечание:</t>
+  </si>
+  <si>
+    <t>платежей в год</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial Cyr"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="14"/>
@@ -194,14 +240,6 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -239,7 +277,7 @@
     </font>
     <font>
       <b/>
-      <sz val="20"/>
+      <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -247,16 +285,9 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="20"/>
       <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -276,45 +307,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial Cyr"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -323,6 +316,31 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -520,196 +538,204 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="17" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="19" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="12" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="20" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="20" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{2F23B431-0EFE-4973-91FA-34D5334A0341}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -1873,47 +1899,49 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="C3" sqref="C3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" style="44" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="44" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" style="44" customWidth="1"/>
-    <col min="4" max="4" width="2.85546875" style="44" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="44" customWidth="1"/>
-    <col min="6" max="7" width="13.5703125" style="44" customWidth="1"/>
-    <col min="8" max="9" width="13" style="44" customWidth="1"/>
-    <col min="10" max="10" width="2.85546875" style="44" customWidth="1"/>
-    <col min="11" max="11" width="29.5703125" style="44" customWidth="1"/>
-    <col min="12" max="12" width="2.85546875" style="44" customWidth="1"/>
-    <col min="13" max="14" width="13.5703125" style="44" customWidth="1"/>
-    <col min="15" max="15" width="9" style="44" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="44"/>
+    <col min="1" max="1" width="34.42578125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="2.85546875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="13" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="13" style="13" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" style="13" customWidth="1"/>
+    <col min="11" max="11" width="29.5703125" style="13" customWidth="1"/>
+    <col min="12" max="12" width="2.85546875" style="13" customWidth="1"/>
+    <col min="13" max="14" width="13.5703125" style="13" customWidth="1"/>
+    <col min="15" max="15" width="9" style="13" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="64"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="12"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="61"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
@@ -1927,13 +1955,13 @@
       <c r="E2" s="54"/>
       <c r="F2" s="54"/>
       <c r="G2" s="54"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="66"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="62"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="51" t="s">
@@ -1947,189 +1975,195 @@
       <c r="E3" s="54"/>
       <c r="F3" s="54"/>
       <c r="G3" s="54"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="69" t="s">
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="16"/>
+    </row>
+    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="52"/>
+      <c r="C4" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="16"/>
+    </row>
+    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="68"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="16"/>
+    </row>
+    <row r="6" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="19"/>
+    </row>
+    <row r="7" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="45"/>
-    </row>
-    <row r="4" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="45"/>
-    </row>
-    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="55" t="s">
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="45"/>
-    </row>
-    <row r="6" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="9"/>
-    </row>
-    <row r="7" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="57" t="s">
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="57" t="s">
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="19"/>
+    </row>
+    <row r="8" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="9"/>
-    </row>
-    <row r="8" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="B8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="C8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="13" t="s">
+      <c r="F8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="G8" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="H8" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="50"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="L8" s="23"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="25"/>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="30"/>
+    </row>
+    <row r="10" spans="1:14" ht="26.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="58"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="15" t="s">
+      <c r="B10" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="16"/>
-    </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="19"/>
-    </row>
-    <row r="10" spans="1:14" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="22">
+      <c r="C10" s="45">
         <v>2000000</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="23">
+      <c r="D10" s="28"/>
+      <c r="E10" s="41">
         <f>F10/C10</f>
         <v>0.05</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="42">
         <v>100000</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="43">
         <v>0</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="43">
         <v>1</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="32">
         <f>SUM(F10:F10)</f>
         <v>100000</v>
       </c>
-      <c r="J10" s="47"/>
-      <c r="K10" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" s="47"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="19"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="28"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="30"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="48"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="K3:K4"/>
+  <mergeCells count="12">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="M1:N2"/>
@@ -2137,12 +2171,14 @@
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:G3"/>
-    <mergeCell ref="A5:G5"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="I7:I8"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="72" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="71" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Arial Cyr,Regular"&amp;10&amp;K000000summary_template.xlsx&amp;C&amp;"Helvetica Neue,Regular"&amp;11&amp;K000000&amp;P</oddHeader>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;11&amp;K000000&amp;P</oddFooter>
@@ -2151,7 +2187,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDCC026-0679-4973-AC18-B85E66CD85DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
@@ -2160,247 +2196,247 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.85546875" style="43" customWidth="1"/>
-    <col min="2" max="2" width="76" style="43" customWidth="1"/>
-    <col min="3" max="3" width="9" style="43" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="43"/>
+    <col min="1" max="1" width="50.85546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="76" style="10" customWidth="1"/>
+    <col min="3" max="3" width="9" style="10" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42"/>
-      <c r="B1" s="42"/>
+      <c r="A1" s="37"/>
+      <c r="B1" s="37"/>
     </row>
     <row r="2" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+    </row>
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+    </row>
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="46" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42"/>
-      <c r="B3" s="32"/>
-    </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="34"/>
-    </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="34" t="s">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
+    <row r="12" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B14" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="34" t="s">
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="34" t="s">
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-    </row>
-    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="34"/>
-    </row>
-    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="34" t="s">
+    <row r="17" spans="1:2" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="38" t="s">
+    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+    </row>
+    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="34" t="s">
+    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="34" t="s">
+    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="34" t="s">
+    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="34" t="s">
+    <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="37"/>
+      <c r="B25" s="38"/>
+    </row>
+    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="38" t="s">
+    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-    </row>
-    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-    </row>
-    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="34"/>
-    </row>
-    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="34" t="s">
+    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="42"/>
-      <c r="B25" s="32"/>
-    </row>
-    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="34"/>
-    </row>
-    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>39</v>
-      </c>
-    </row>
     <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="34"/>
-      <c r="B30" s="34"/>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
     </row>
     <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="34"/>
-      <c r="B32" s="34"/>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
     </row>
     <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="34"/>
-      <c r="B33" s="34"/>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
     </row>
     <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="34"/>
-      <c r="B34" s="34"/>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
     </row>
     <row r="35" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="34"/>
-      <c r="B35" s="34"/>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
     </row>
     <row r="36" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="34"/>
-      <c r="B36" s="34"/>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
     </row>
     <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="34"/>
-      <c r="B37" s="34"/>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
     </row>
     <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="34"/>
-      <c r="B38" s="34"/>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/templates/summary_template_simplified.xlsx
+++ b/templates/summary_template_simplified.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grachev\Yandex.Disk\Работа\ОнлайнБрокер\soft\onlineservice\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3C78F6-9C89-4A4D-B747-ECFEEE8B018D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880FD6B9-CC10-4278-A49A-71D30D2403D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary_template_sheet" sheetId="1" r:id="rId1"/>
@@ -116,9 +116,6 @@
     <t>Рассрочка:</t>
   </si>
   <si>
-    <t>Заправшиваемые риски:</t>
-  </si>
-  <si>
     <t>Банк-кредитор:</t>
   </si>
   <si>
@@ -171,6 +168,9 @@
   </si>
   <si>
     <t>платежей в год</t>
+  </si>
+  <si>
+    <t>Запрашиваемые риски:</t>
   </si>
 </sst>
 </file>
@@ -681,6 +681,42 @@
     <xf numFmtId="0" fontId="21" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -704,42 +740,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1906,7 +1906,7 @@
   </sheetPr>
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:G2"/>
     </sheetView>
   </sheetViews>
@@ -1930,81 +1930,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="57" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
       <c r="J1" s="12"/>
       <c r="K1" s="53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L1" s="12"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="60"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="72"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
       <c r="J2" s="15"/>
       <c r="K2" s="48"/>
       <c r="L2" s="15"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="62"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="74"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
       <c r="K3" s="54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
       <c r="N3" s="16"/>
     </row>
     <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="69" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
+      <c r="A4" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="58"/>
+      <c r="C4" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
@@ -2014,11 +2014,11 @@
       <c r="N4" s="16"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="74" t="s">
-        <v>39</v>
+      <c r="B5" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>38</v>
       </c>
       <c r="D5" s="52"/>
       <c r="E5" s="51"/>
@@ -2049,19 +2049,19 @@
       <c r="N6" s="19"/>
     </row>
     <row r="7" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="71" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
+      <c r="A7" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
       <c r="D7" s="20"/>
-      <c r="E7" s="67" t="s">
+      <c r="E7" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="67" t="s">
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="61" t="s">
         <v>7</v>
       </c>
       <c r="J7" s="20"/>
@@ -2091,9 +2091,9 @@
         <v>13</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="68"/>
+        <v>47</v>
+      </c>
+      <c r="I8" s="62"/>
       <c r="J8" s="23"/>
       <c r="K8" s="24" t="s">
         <v>14</v>
@@ -2172,6 +2172,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="M1:N2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="E7:H7"/>
@@ -2179,11 +2184,6 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="M1:N2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="71" orientation="landscape" r:id="rId1"/>
@@ -2198,8 +2198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2237,7 +2237,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2245,7 +2245,7 @@
         <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2253,7 +2253,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2261,7 +2261,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2279,7 +2279,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2287,15 +2287,15 @@
         <v>22</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2303,7 +2303,7 @@
         <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2311,23 +2311,23 @@
         <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2340,40 +2340,40 @@
     </row>
     <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2382,32 +2382,32 @@
     </row>
     <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="1"/>
     </row>
     <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
